--- a/scenarios/bladder/processes/IntroductionAndTopics.xlsx
+++ b/scenarios/bladder/processes/IntroductionAndTopics.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\bladder\processes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B28E650-77CE-491A-9281-757011622CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="content" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="content" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,79 +27,79 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich werde besser, je mehr du mir erzählst, also werde ich ein paar Fragen stellen, die mir helfen werden, dir zu helfen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(name)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Hint</t>
+  </si>
+  <si>
+    <t>Popup</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Ich werde besser, je mehr du mir erzählst, also werde ich ein paar Fragen stellen, die mir helfen werden, dir zu helfen.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>GO(name)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
   <si>
     <t xml:space="preserve">Prima, wie heißt du? </t>
   </si>
   <si>
-    <t xml:space="preserve">[name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Name - Klick "Send"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(sex)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender/Sex</t>
+    <t>[name]</t>
+  </si>
+  <si>
+    <t>Enter Name - Klick "Send"</t>
+  </si>
+  <si>
+    <t>GO(sex)</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Gender/Sex</t>
   </si>
   <si>
     <r>
@@ -105,7 +110,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">H</t>
+      <t>H</t>
     </r>
     <r>
       <rPr>
@@ -114,7 +119,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">i {[name]}</t>
+      <t>i {[name]}</t>
     </r>
     <r>
       <rPr>
@@ -124,127 +129,108 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, bist du männlich oder weiblich?</t>
+      <t>, bist du männlich oder weiblich?</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Warum gibt es nur die beiden Antwortmöglichkeiten?</t>
+    <t>Warum gibt es nur die beiden Antwortmöglichkeiten?</t>
   </si>
   <si>
     <t xml:space="preserve">Trotz der Reihe von Geschlechtsidentitäten neben männlich und weiblich, ist die Datenlage zum Zusammenhang zwischen Geschlechtsidentität und Gesundheit leider noch nicht ausreichend. So dass wir nur, wenn wir dein biologisches Geschlecht kennen, mit gutem Gewissen Aussagen zu deiner Gesundheit treffen können. </t>
   </si>
   <si>
-    <t xml:space="preserve">Weiblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(birth)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Männlich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
+    <t>Weiblich</t>
+  </si>
+  <si>
+    <t>GO(birth)</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Männlich</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>Birth Date</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t xml:space="preserve">Wann bist du geboren? </t>
   </si>
   <si>
-    <t xml:space="preserve">[birth]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klick "Select your birthday"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go(Thank1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thanks1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thank you</t>
+    <t>[birth]</t>
+  </si>
+  <si>
+    <t>Klick "Select your birthday"</t>
+  </si>
+  <si>
+    <t>thanks1</t>
+  </si>
+  <si>
+    <t>Thank you</t>
   </si>
   <si>
     <t xml:space="preserve">Danke, {[name]}. Ich habe fürs Erste genug Informationen über dich und wir können mit [aim] beginnen. </t>
   </si>
   <si>
-    <t xml:space="preserve">[aim] starten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUMP([aim_jump])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thanks2</t>
+    <t>[aim] starten.</t>
+  </si>
+  <si>
+    <t>JUMP([aim_jump])</t>
+  </si>
+  <si>
+    <t>thanks2</t>
   </si>
   <si>
     <t xml:space="preserve">Danke, [name]. Ich habe fürs Erste genug Informationen über dich und wir können starten. </t>
   </si>
   <si>
-    <t xml:space="preserve">Ich brauche Hilfe mit meiner Blasenentzündung.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUMP(Bladder)</t>
+    <t>Ich brauche Hilfe mit meiner Blasenentzündung.</t>
+  </si>
+  <si>
+    <t>JUMP(Bladder)</t>
   </si>
   <si>
     <t xml:space="preserve">Ich brauche Hilfe mit meinem Vaginalpilz. </t>
   </si>
   <si>
-    <t xml:space="preserve">JUMP(Fungus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich habe Fragen zur Pille danach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUMP(Pill)</t>
+    <t>JUMP(Fungus)</t>
+  </si>
+  <si>
+    <t>Ich habe Fragen zur Pille danach.</t>
+  </si>
+  <si>
+    <t>JUMP(Pill)</t>
   </si>
   <si>
     <t xml:space="preserve">Irgendwas stimmt nicht mit meinem Genitalbereich. Kannst du mir weiterhelfen? </t>
   </si>
   <si>
-    <t xml:space="preserve">JUMP(General)</t>
+    <t>JUMP(General)</t>
+  </si>
+  <si>
+    <t>Go(thanks1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -254,7 +240,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -262,7 +248,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -316,14 +302,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFF4B183"/>
       </left>
@@ -336,7 +322,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFF4B183"/>
       </left>
@@ -348,130 +334,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="MetaData_Columns" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="MetaData_Columns" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -530,34 +454,342 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF3652A0"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.15"/>
+    <col min="2" max="2" width="17.3828125" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.53515625" customWidth="1"/>
+    <col min="5" max="5" width="15.61328125" customWidth="1"/>
+    <col min="8" max="8" width="21.4609375" customWidth="1"/>
+    <col min="9" max="9" width="29.84375" customWidth="1"/>
+    <col min="1024" max="1024" width="9.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,7 +818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -603,7 +835,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
@@ -618,7 +850,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -637,7 +869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="10" t="s">
@@ -652,7 +884,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="157.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="157.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -675,7 +907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
@@ -692,7 +924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
@@ -709,7 +941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -728,7 +960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="12" t="s">
@@ -737,121 +969,114 @@
       <c r="D10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>39</v>
+      <c r="E10" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="14"/>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="0" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="14"/>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="14"/>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="14"/>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B17" s="14"/>
+      <c r="C17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="15"/>
-      <c r="C17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="20"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="20"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C22" s="19"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/scenarios/bladder/processes/IntroductionAndTopics.xlsx
+++ b/scenarios/bladder/processes/IntroductionAndTopics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\bladder\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B28E650-77CE-491A-9281-757011622CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7834ADD9-6FD4-4332-8041-F87BE781EA36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -202,15 +202,9 @@
     <t xml:space="preserve">Ich brauche Hilfe mit meinem Vaginalpilz. </t>
   </si>
   <si>
-    <t>JUMP(Fungus)</t>
-  </si>
-  <si>
     <t>Ich habe Fragen zur Pille danach.</t>
   </si>
   <si>
-    <t>JUMP(Pill)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Irgendwas stimmt nicht mit meinem Genitalbereich. Kannst du mir weiterhelfen? </t>
   </si>
   <si>
@@ -218,13 +212,16 @@
   </si>
   <si>
     <t>Go(thanks1)</t>
+  </si>
+  <si>
+    <t>JUMP(Dropout)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -268,8 +265,30 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,7 +315,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBE5D6"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -340,7 +365,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -379,16 +404,26 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="MetaData_Columns" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -775,7 +810,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -970,7 +1005,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="5"/>
@@ -1002,78 +1037,83 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="A13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="20" t="s">
         <v>45</v>
       </c>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="14"/>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="14"/>
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="14"/>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B17" s="14"/>
-      <c r="C17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>53</v>
-      </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B18" s="14"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C22" s="19"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C22" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/scenarios/bladder/processes/IntroductionAndTopics.xlsx
+++ b/scenarios/bladder/processes/IntroductionAndTopics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\bladder\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7834ADD9-6FD4-4332-8041-F87BE781EA36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA83A99-3B13-4930-A43C-A2677CBF1527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -172,56 +172,29 @@
     <t>Klick "Select your birthday"</t>
   </si>
   <si>
-    <t>thanks1</t>
-  </si>
-  <si>
     <t>Thank you</t>
   </si>
   <si>
-    <t xml:space="preserve">Danke, {[name]}. Ich habe fürs Erste genug Informationen über dich und wir können mit [aim] beginnen. </t>
-  </si>
-  <si>
-    <t>[aim] starten.</t>
-  </si>
-  <si>
-    <t>JUMP([aim_jump])</t>
-  </si>
-  <si>
-    <t>thanks2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danke, [name]. Ich habe fürs Erste genug Informationen über dich und wir können starten. </t>
-  </si>
-  <si>
-    <t>Ich brauche Hilfe mit meiner Blasenentzündung.</t>
-  </si>
-  <si>
     <t>JUMP(Bladder)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ich brauche Hilfe mit meinem Vaginalpilz. </t>
-  </si>
-  <si>
-    <t>Ich habe Fragen zur Pille danach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irgendwas stimmt nicht mit meinem Genitalbereich. Kannst du mir weiterhelfen? </t>
-  </si>
-  <si>
-    <t>JUMP(General)</t>
-  </si>
-  <si>
-    <t>Go(thanks1)</t>
-  </si>
-  <si>
-    <t>JUMP(Dropout)</t>
+    <t xml:space="preserve">Danke, {[name]}. Ich habe fürs Erste genug Informationen über dich und wir können beginnen. </t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>Go(thanks)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -258,37 +231,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,18 +255,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -365,7 +297,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -403,27 +335,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="MetaData_Columns" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -807,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1005,17 +919,17 @@
         <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -1033,87 +947,20 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="14"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C22" s="16"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
